--- a/data/trans_dic/P19C01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2205040110664037</v>
+        <v>0.2110213191347398</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1401236826837497</v>
+        <v>0.1417001189822585</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.189962425743711</v>
+        <v>0.1895302943646948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.88540709990041</v>
+        <v>0.8848924603936899</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2953459404566863</v>
+        <v>0.2961397652464769</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1291841964722062</v>
+        <v>0.130564328486666</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2635471170165194</v>
+        <v>0.2584107583663622</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9278118548476466</v>
+        <v>0.9276304272562468</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2775870226378813</v>
+        <v>0.2727138991356758</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1477335985904832</v>
+        <v>0.1475518612591579</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.236674771097603</v>
+        <v>0.2398622074582005</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.91727151193215</v>
+        <v>0.9165936111878527</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.346187040801335</v>
+        <v>0.3402598589296494</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2419819166348275</v>
+        <v>0.2402781965037846</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3045879891991429</v>
+        <v>0.3055099968300596</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9453219739863501</v>
+        <v>0.9472057880222499</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4351996852198817</v>
+        <v>0.4335827766474454</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2274970036264335</v>
+        <v>0.2268322017914576</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3776450279295052</v>
+        <v>0.3748410577655939</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9651329590057268</v>
+        <v>0.9649280913278334</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.370289652745844</v>
+        <v>0.3680652562028602</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2193538344926825</v>
+        <v>0.2167551584056563</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3194579560010959</v>
+        <v>0.3222068481732936</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.950526479872126</v>
+        <v>0.9514424373669297</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3433633970832418</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4238907395095978</v>
+        <v>0.4238907395095977</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2971050209988285</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2530349502241473</v>
+        <v>0.2526803626958683</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.248752589514025</v>
+        <v>0.2492796685345571</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2260163174693822</v>
+        <v>0.2254180513214869</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3590292710969721</v>
+        <v>0.3564549444596919</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2511320384869367</v>
+        <v>0.2562655795485651</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2493983521411205</v>
+        <v>0.2489961960745867</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2944889203831473</v>
+        <v>0.2950003082065922</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.385697530987413</v>
+        <v>0.3852712398786143</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2663299921804938</v>
+        <v>0.2664198644551588</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2603443520567998</v>
+        <v>0.261768459001277</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2718436648908364</v>
+        <v>0.2770094623436371</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3842090606742774</v>
+        <v>0.3843713203081612</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3439408321597842</v>
+        <v>0.3445305427986945</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341817909639538</v>
+        <v>0.3421826276447624</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3236862711466513</v>
+        <v>0.3198668661739844</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4615602157582221</v>
+        <v>0.4638736394885324</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3426205675737599</v>
+        <v>0.3433710522455812</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3374075903217307</v>
+        <v>0.3424117725032673</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3881500737645218</v>
+        <v>0.3931968696180416</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4647990297846453</v>
+        <v>0.4624829767728022</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3291266447924466</v>
+        <v>0.331551482213405</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3274832557311474</v>
+        <v>0.3237325499632237</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.340985156819809</v>
+        <v>0.3443590673134207</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4509212958447857</v>
+        <v>0.4532432791596478</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1839176374593942</v>
+        <v>0.1887982367568304</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2842940350825489</v>
+        <v>0.2784437724880918</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.317996886202095</v>
+        <v>0.3216481693116815</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3560103291893999</v>
+        <v>0.3560808204069471</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2058763496288925</v>
+        <v>0.2038440113360921</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3103290378965186</v>
+        <v>0.3047306937825645</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3410603403763668</v>
+        <v>0.3410288876966295</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3700737021191816</v>
+        <v>0.3726814895314195</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2115994655418617</v>
+        <v>0.212769921956459</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3114416350649084</v>
+        <v>0.3112453182390169</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3481378325592701</v>
+        <v>0.347355625448834</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.376682791068454</v>
+        <v>0.3786124959901315</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3008730693390007</v>
+        <v>0.2933584826179755</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3913707656135961</v>
+        <v>0.3917610258875526</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4277422696140145</v>
+        <v>0.4316318362057576</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4668807349681103</v>
+        <v>0.4668874322245199</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3040595682215085</v>
+        <v>0.3090018619441161</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4206877573179988</v>
+        <v>0.4156743831939095</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4542282369913035</v>
+        <v>0.4497710934393653</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4610386858048626</v>
+        <v>0.4610592447616636</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.283852658626674</v>
+        <v>0.2851486205459529</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3898440647518281</v>
+        <v>0.3881455625711323</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4239258347372057</v>
+        <v>0.4280353359909825</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4508204795651682</v>
+        <v>0.4492084729499873</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3086685676844333</v>
+        <v>0.313233273818986</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2525676610758528</v>
+        <v>0.245885164981938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2554358977049825</v>
+        <v>0.2521536634874705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2691310242032864</v>
+        <v>0.2682857670868637</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2978423881878472</v>
+        <v>0.2975212943387529</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3009276346725189</v>
+        <v>0.3111189748097518</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2212814648792113</v>
+        <v>0.2200063902093199</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2783634962128402</v>
+        <v>0.2813749332606394</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3202336475489406</v>
+        <v>0.3196745478109753</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2907489824470322</v>
+        <v>0.2915073755666415</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2493891224949716</v>
+        <v>0.2513562609132474</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2856426340455233</v>
+        <v>0.2849673370762233</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4237146568275043</v>
+        <v>0.428789082296134</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3584192791543052</v>
+        <v>0.3564516485611863</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3539250601395036</v>
+        <v>0.3559032216803056</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3934200680693845</v>
+        <v>0.3962046224217908</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4073130515745428</v>
+        <v>0.4058813375194577</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4089889258215413</v>
+        <v>0.4175920813301463</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3194075647234004</v>
+        <v>0.3199937594860296</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3686387503427651</v>
+        <v>0.3743425933233378</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3960265125386726</v>
+        <v>0.3992174794222303</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3697895220925</v>
+        <v>0.371370962566109</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3208708233268134</v>
+        <v>0.3222951743088248</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3676482208035449</v>
+        <v>0.3652366980958161</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.6475799437156662</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8719638007289702</v>
+        <v>0.8719638007289704</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.4304339917893182</v>
@@ -1229,7 +1229,7 @@
         <v>0.6794141416872221</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9031075311743785</v>
+        <v>0.9031075311743784</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.4140257500521171</v>
@@ -1241,7 +1241,7 @@
         <v>0.6650770574223916</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.8886966947104095</v>
+        <v>0.8886966947104092</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3182538409201931</v>
+        <v>0.326006058402758</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3221685160469533</v>
+        <v>0.3165377091269774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5583323469665893</v>
+        <v>0.5553733042660605</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8288422268568328</v>
+        <v>0.8306566775272277</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3486519775537127</v>
+        <v>0.3552049696690411</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3905596271765947</v>
+        <v>0.3960186043785857</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5906153309213277</v>
+        <v>0.6036025551829921</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8718990662576512</v>
+        <v>0.8690204565988242</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3603596096539903</v>
+        <v>0.3589828515630177</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.378974651946694</v>
+        <v>0.3742769953000868</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6076251316467268</v>
+        <v>0.6112558964923537</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8641902256147336</v>
+        <v>0.8640672813986403</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4734087316237193</v>
+        <v>0.4723942804412999</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4705377265838414</v>
+        <v>0.4671165212291774</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7250686739969044</v>
+        <v>0.7239266583006031</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9103468495341097</v>
+        <v>0.9111744955612995</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5095467542600549</v>
+        <v>0.5126851277069304</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5283689786995912</v>
+        <v>0.533895344759551</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7463702047053447</v>
+        <v>0.7479458150137992</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9274220867708199</v>
+        <v>0.9255531013017375</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4645949307729444</v>
+        <v>0.4672988536490771</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4804283929351576</v>
+        <v>0.475481780011772</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7197553729395857</v>
+        <v>0.7201239583027955</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9115868216682884</v>
+        <v>0.9114935291171838</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.449957921677509</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.5148481919571058</v>
+        <v>0.514848191957106</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2822860939076351</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.186560736755767</v>
+        <v>0.1844321295333669</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2434223433111372</v>
+        <v>0.2506871049097835</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3299138410619809</v>
+        <v>0.3318848085649708</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3631667000124554</v>
+        <v>0.3628892650532854</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2548660862215869</v>
+        <v>0.2590505901205559</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3346678967948106</v>
+        <v>0.3363915834964361</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.384801317354976</v>
+        <v>0.3900254197251947</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4670649270022644</v>
+        <v>0.4613927251525402</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2404690831263956</v>
+        <v>0.2378093042831946</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.308875514541277</v>
+        <v>0.3068635533307011</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.377201322537939</v>
+        <v>0.3805474260533574</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4297926852498141</v>
+        <v>0.4286492517825451</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3096872265510239</v>
+        <v>0.3118091500035612</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3684111332325579</v>
+        <v>0.3683193552277832</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4588107174768816</v>
+        <v>0.456496824177644</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4750603165246777</v>
+        <v>0.4713362607169984</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3852312353496349</v>
+        <v>0.39042396555025</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4596897847983913</v>
+        <v>0.4525006347864917</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5159743990258556</v>
+        <v>0.5144203477548824</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5713436730345065</v>
+        <v>0.5656378542203372</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3277274398707266</v>
+        <v>0.3262725536209885</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3908579994775541</v>
+        <v>0.3908990022165856</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4651800240387687</v>
+        <v>0.4684758614796508</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.503589463358513</v>
+        <v>0.5037563168963273</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.4982123646319439</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.588466686363358</v>
+        <v>0.5884666863633579</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2590571902576809</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.186119072268154</v>
+        <v>0.1822341890107672</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2663871508175322</v>
+        <v>0.2687658405542321</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4466520194673306</v>
+        <v>0.4463565059076434</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5477175566908268</v>
+        <v>0.5444411080633247</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2237295216885821</v>
+        <v>0.2230745391894688</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3520402196420051</v>
+        <v>0.3555381665352741</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4510971952026626</v>
+        <v>0.4494861138144828</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5319403778675995</v>
+        <v>0.5307189990715528</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2148022041631711</v>
+        <v>0.2132605167734068</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3228942794999628</v>
+        <v>0.3241614097505727</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4608060570613873</v>
+        <v>0.4635706503780094</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5498617145216005</v>
+        <v>0.5459106585642223</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2637629988157865</v>
+        <v>0.2627790446210109</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3430444856059163</v>
+        <v>0.3501305116142372</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5460451876389577</v>
+        <v>0.5499353353118743</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6282050063719972</v>
+        <v>0.6278072573852582</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3016095946009672</v>
+        <v>0.2982814664757189</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4388966192980849</v>
+        <v>0.4398956898589254</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5434448503301248</v>
+        <v>0.5399353204314314</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6013759574835147</v>
+        <v>0.5950120539514643</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2693091781852172</v>
+        <v>0.2702303162203435</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3823826239259961</v>
+        <v>0.3796264948448962</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5274325641014049</v>
+        <v>0.5325013848784217</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.602171338856581</v>
+        <v>0.6008349238101978</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.5155014637903471</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.6820992085059547</v>
+        <v>0.6820992085059545</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.3354518469968044</v>
@@ -1637,7 +1637,7 @@
         <v>0.5287898591365792</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.7401630430239008</v>
+        <v>0.7401630430239007</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.3436798889341521</v>
@@ -1649,7 +1649,7 @@
         <v>0.5224005816298591</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.7118518433489078</v>
+        <v>0.7118518433489077</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3134503889284824</v>
+        <v>0.3113820940680301</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2361305363643394</v>
+        <v>0.2384252312081779</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4763682768376462</v>
+        <v>0.4745472789251914</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6489583604267134</v>
+        <v>0.6489728177654414</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2986162135062669</v>
+        <v>0.2980495958966894</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2825029177595302</v>
+        <v>0.2798156144822146</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4888066846351117</v>
+        <v>0.4873728856701237</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.7148201874089166</v>
+        <v>0.7107427507573393</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3141053585158424</v>
+        <v>0.3147770588062191</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.268902425589869</v>
+        <v>0.2693139262707195</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4967629506920121</v>
+        <v>0.4966901567443699</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.6907325587810571</v>
+        <v>0.6893408877614647</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3957505289040687</v>
+        <v>0.3957624949588571</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.310177803766615</v>
+        <v>0.3100279693331074</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5551304506014701</v>
+        <v>0.5568301321252181</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7163986281170555</v>
+        <v>0.7157043477835542</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3772816243547034</v>
+        <v>0.3725318423838144</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3537500299601714</v>
+        <v>0.3559297440797178</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.570725386507469</v>
+        <v>0.5692753088156647</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.7659580603061436</v>
+        <v>0.7666892975418609</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3737066435437775</v>
+        <v>0.3736925403505944</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3224090543202344</v>
+        <v>0.3222680326286304</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.552157730652716</v>
+        <v>0.551254729399864</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.734044758655013</v>
+        <v>0.7327993889245171</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.4077582905099349</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.5706211980050084</v>
+        <v>0.5706211980050083</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.3138913274493892</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2791603656560006</v>
+        <v>0.2797294812321364</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2776719134491493</v>
+        <v>0.276990284205782</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3882823218108031</v>
+        <v>0.388099892840855</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5513034086912294</v>
+        <v>0.5512283116340027</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2966215097468581</v>
+        <v>0.2950697197079569</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3227712233560475</v>
+        <v>0.3254677268507369</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4162937794800607</v>
+        <v>0.4151205462784604</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5756877819708106</v>
+        <v>0.5766719293248871</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2935505156213891</v>
+        <v>0.2941442396808467</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.3070473860152975</v>
+        <v>0.3079776473292895</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.4075612024512862</v>
+        <v>0.4058764407552984</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.568582488074257</v>
+        <v>0.5695617549412899</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3181734517913822</v>
+        <v>0.3167788364700802</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3119583184025893</v>
+        <v>0.3128883131519708</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4265129713493905</v>
+        <v>0.4285677614802746</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5886264517079237</v>
+        <v>0.589123078260266</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3328566081873888</v>
+        <v>0.330649202192282</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3601267187145408</v>
+        <v>0.3602115577954447</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4520381453239011</v>
+        <v>0.4514918782636505</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6035292271817231</v>
+        <v>0.6055551472652901</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3200516812709652</v>
+        <v>0.3189980000893584</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3320768718290228</v>
+        <v>0.332268222296162</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.4361876694674531</v>
+        <v>0.4346809050436202</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.5925460956111541</v>
+        <v>0.5937397270546808</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>42225</v>
+        <v>40409</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35109</v>
+        <v>35504</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>46582</v>
+        <v>46476</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>266434</v>
+        <v>266279</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>59430</v>
+        <v>59590</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>32332</v>
+        <v>32678</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>64921</v>
+        <v>63655</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>287124</v>
+        <v>287068</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>109013</v>
+        <v>107099</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>73991</v>
+        <v>73900</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>116338</v>
+        <v>117905</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>559885</v>
+        <v>559471</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>66292</v>
+        <v>65157</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>60631</v>
+        <v>60204</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>74690</v>
+        <v>74917</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>284463</v>
+        <v>285030</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>87572</v>
+        <v>87246</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>56938</v>
+        <v>56772</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>93027</v>
+        <v>92336</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>298674</v>
+        <v>298611</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>145419</v>
+        <v>144545</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>109862</v>
+        <v>108560</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>157030</v>
+        <v>158381</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>580183</v>
+        <v>580742</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>103683</v>
+        <v>103537</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>101076</v>
+        <v>101290</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>82081</v>
+        <v>81864</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>185987</v>
+        <v>184654</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>110800</v>
+        <v>113065</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>108943</v>
+        <v>108768</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>115830</v>
+        <v>116032</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>205041</v>
+        <v>204815</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>226635</v>
+        <v>226712</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>219511</v>
+        <v>220711</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>205648</v>
+        <v>209555</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>403281</v>
+        <v>403452</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>140932</v>
+        <v>141173</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>138891</v>
+        <v>139039</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>117552</v>
+        <v>116164</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>239101</v>
+        <v>240300</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>151165</v>
+        <v>151496</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>147388</v>
+        <v>149574</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>152670</v>
+        <v>154655</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>247093</v>
+        <v>245862</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>280073</v>
+        <v>282136</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>276119</v>
+        <v>272957</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>257953</v>
+        <v>260505</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>473305</v>
+        <v>475742</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>43503</v>
+        <v>44658</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>83487</v>
+        <v>81769</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>92380</v>
+        <v>93441</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>106885</v>
+        <v>106907</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>59458</v>
+        <v>58871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>101689</v>
+        <v>99854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>104966</v>
+        <v>104956</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>126456</v>
+        <v>127347</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>111162</v>
+        <v>111777</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>193513</v>
+        <v>193391</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>208280</v>
+        <v>207812</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>241806</v>
+        <v>243045</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>71168</v>
+        <v>69390</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>114932</v>
+        <v>115046</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>124262</v>
+        <v>125392</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>140172</v>
+        <v>140174</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>87814</v>
+        <v>89242</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>137851</v>
+        <v>136209</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>139795</v>
+        <v>138423</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>157539</v>
+        <v>157546</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>149120</v>
+        <v>149801</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>242228</v>
+        <v>241172</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>253622</v>
+        <v>256081</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>289397</v>
+        <v>288363</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>82578</v>
+        <v>83800</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>79073</v>
+        <v>76981</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>84306</v>
+        <v>83223</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>99777</v>
+        <v>99464</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>89214</v>
+        <v>89118</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>103163</v>
+        <v>106656</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>77196</v>
+        <v>76752</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>116805</v>
+        <v>118069</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>181593</v>
+        <v>181276</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>190700</v>
+        <v>191197</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>169312</v>
+        <v>170648</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>225758</v>
+        <v>225224</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>113357</v>
+        <v>114714</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>112213</v>
+        <v>111597</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>116812</v>
+        <v>117465</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>145856</v>
+        <v>146888</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>122004</v>
+        <v>121575</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>140208</v>
+        <v>143157</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>111429</v>
+        <v>111633</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>154686</v>
+        <v>157079</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>224573</v>
+        <v>226382</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>242542</v>
+        <v>243579</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>217842</v>
+        <v>218809</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>290571</v>
+        <v>288665</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>54192</v>
+        <v>55512</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>61875</v>
+        <v>60794</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>66565</v>
+        <v>66213</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>156899</v>
+        <v>157242</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>60633</v>
+        <v>61772</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>75996</v>
+        <v>77058</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>85935</v>
+        <v>87824</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>191645</v>
+        <v>191012</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>124030</v>
+        <v>123556</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>146527</v>
+        <v>144710</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>160852</v>
+        <v>161813</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>353541</v>
+        <v>353491</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>80611</v>
+        <v>80438</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>90371</v>
+        <v>89713</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>86444</v>
+        <v>86308</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>172328</v>
+        <v>172484</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>88613</v>
+        <v>89159</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>102811</v>
+        <v>103886</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>108597</v>
+        <v>108826</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>203849</v>
+        <v>203438</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>159906</v>
+        <v>160837</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>185753</v>
+        <v>183840</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>190535</v>
+        <v>190633</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>372931</v>
+        <v>372893</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>35310</v>
+        <v>34907</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>60849</v>
+        <v>62665</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>77073</v>
+        <v>77533</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>90695</v>
+        <v>90626</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>52117</v>
+        <v>52973</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>88630</v>
+        <v>89087</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>95099</v>
+        <v>96390</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>117495</v>
+        <v>116068</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>94687</v>
+        <v>93639</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>159010</v>
+        <v>157974</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>181341</v>
+        <v>182949</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>215452</v>
+        <v>214879</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>58615</v>
+        <v>59016</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>92093</v>
+        <v>92070</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>107185</v>
+        <v>106645</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>118639</v>
+        <v>117709</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>78775</v>
+        <v>79837</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>121740</v>
+        <v>119836</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>127516</v>
+        <v>127132</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>143727</v>
+        <v>142292</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>129045</v>
+        <v>128472</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>201215</v>
+        <v>201236</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>223637</v>
+        <v>225221</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>252446</v>
+        <v>252530</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>86420</v>
+        <v>84616</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>153197</v>
+        <v>154565</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>197557</v>
+        <v>197427</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>382652</v>
+        <v>380363</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>120673</v>
+        <v>120319</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>220373</v>
+        <v>222562</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>219707</v>
+        <v>218923</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>394373</v>
+        <v>393468</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>215595</v>
+        <v>214048</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>387821</v>
+        <v>389343</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>428254</v>
+        <v>430823</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>791811</v>
+        <v>786121</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>122472</v>
+        <v>122015</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>197282</v>
+        <v>201357</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>241520</v>
+        <v>243240</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>438883</v>
+        <v>438606</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>162679</v>
+        <v>160883</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>274744</v>
+        <v>275369</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>264685</v>
+        <v>262976</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>445852</v>
+        <v>441134</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>270303</v>
+        <v>271228</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>459271</v>
+        <v>455961</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>490174</v>
+        <v>494884</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>867138</v>
+        <v>865213</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>165206</v>
+        <v>164115</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>149684</v>
+        <v>151139</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>304996</v>
+        <v>303830</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>500379</v>
+        <v>500390</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>176626</v>
+        <v>176291</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>198400</v>
+        <v>196513</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>337932</v>
+        <v>336941</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>579224</v>
+        <v>575920</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>351338</v>
+        <v>352089</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>359307</v>
+        <v>359857</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>661486</v>
+        <v>661389</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1092295</v>
+        <v>1090094</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>208582</v>
+        <v>208589</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>196623</v>
+        <v>196528</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>355423</v>
+        <v>356512</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>552379</v>
+        <v>551844</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>223155</v>
+        <v>220346</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>248437</v>
+        <v>249967</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>394566</v>
+        <v>393563</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>620661</v>
+        <v>621254</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>418004</v>
+        <v>417989</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>430803</v>
+        <v>430614</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>735249</v>
+        <v>734047</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1160787</v>
+        <v>1158817</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>685686</v>
+        <v>687084</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>809319</v>
+        <v>807332</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1034513</v>
+        <v>1034027</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1873676</v>
+        <v>1873421</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>812745</v>
+        <v>808493</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1015211</v>
+        <v>1023692</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1193645</v>
+        <v>1190281</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>2087126</v>
+        <v>2090694</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1525362</v>
+        <v>1528448</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1860693</v>
+        <v>1866330</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2254485</v>
+        <v>2245166</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>3993767</v>
+        <v>4000646</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>781512</v>
+        <v>778086</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>909252</v>
+        <v>911963</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1136373</v>
+        <v>1141847</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2000523</v>
+        <v>2002211</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>912029</v>
+        <v>905981</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1132705</v>
+        <v>1132972</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1296136</v>
+        <v>1294569</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2188064</v>
+        <v>2195409</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1663069</v>
+        <v>1657594</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2012370</v>
+        <v>2013530</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2412837</v>
+        <v>2404502</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>4162089</v>
+        <v>4170474</v>
       </c>
     </row>
     <row r="40">
